--- a/表格/Player.xlsx
+++ b/表格/Player.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\GitHub\Demo1\表格\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1E57B3-0BC0-4710-823C-701373345383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6225" yWindow="3105" windowWidth="22380" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6225" yWindow="3105" windowWidth="22380" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="t_Player" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -138,17 +132,21 @@
   </si>
   <si>
     <t>魔法</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>language</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -334,13 +332,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="差" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="差" xfId="4"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="强调文字颜色 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="强调文字颜色 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="适中" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="好" xfId="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="2"/>
+    <cellStyle name="强调文字颜色 3" xfId="5"/>
+    <cellStyle name="强调文字颜色 4" xfId="3"/>
+    <cellStyle name="适中" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -683,17 +681,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="19.25" style="2" customWidth="1"/>
@@ -706,12 +704,12 @@
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
@@ -738,7 +736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -770,7 +768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -802,7 +800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="78.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
@@ -832,7 +830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>28</v>
       </c>
@@ -864,7 +862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="22.5" customHeight="1">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -896,7 +894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="22.5" customHeight="1">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -907,7 +905,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="22.5" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -919,7 +917,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="22.5" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -931,7 +929,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="22.5" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -943,7 +941,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="22.5" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -955,7 +953,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="22.5" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -967,7 +965,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="22.5" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -979,7 +977,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="22.5" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -991,7 +989,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="22.5" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1003,7 +1001,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1015,7 +1013,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="22.5" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1027,7 +1025,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="22.5" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1039,7 +1037,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="22.5" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>

--- a/表格/Player.xlsx
+++ b/表格/Player.xlsx
@@ -688,7 +688,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="D8" activeCellId="1" sqref="D6 D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -873,7 +873,7 @@
         <v>1001</v>
       </c>
       <c r="D6" s="4">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="E6" s="4">
         <v>4</v>
